--- a/Assets/Spreadsheet Localizations/Scripts/MainGameStart.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/MainGameStart.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;MainGameStart" sheetId="1" r:id="Re16440908af04e6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;MainGameStart" sheetId="1" r:id="Ra3761931e6fa4fe9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -19,6 +19,7 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
+@goto Test.Input1
 @stop</x:t>
   </x:si>
   <x:si>

--- a/Assets/Spreadsheet Localizations/Scripts/MainGameStart.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/MainGameStart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\OCTO GAMES\Assets\Spreadsheet Localizations\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E1297-CDEF-4030-BFC4-09090886F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82DB90-0E61-4DA4-996D-D843C4AF6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Template</t>
   </si>
@@ -43,16 +43,19 @@
     <t>Arguments</t>
   </si>
   <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>"Обери своє ім'я."</t>
   </si>
   <si>
     <t>Привіт, {Player_Name} :3</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>"Choose your name."</t>
+  </si>
+  <si>
+    <t>Hello, {Player_Name} :3</t>
   </si>
 </sst>
 </file>
@@ -938,6 +941,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -947,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
